--- a/data/2026-02-02/SCW Weekly Comp 2026-02-02 (Responses).xlsx
+++ b/data/2026-02-02/SCW Weekly Comp 2026-02-02 (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="368">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1097,6 +1097,24 @@
   </si>
   <si>
     <t>https://www.facebook.com/events/25406338259048847?post_id=25501598566189482&amp;view=permalink</t>
+  </si>
+  <si>
+    <t>Stephen Burson</t>
+  </si>
+  <si>
+    <t>2025BURS02</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/3212043932427643/?post_id=3223568741275162&amp;view=permalink</t>
+  </si>
+  <si>
+    <t>58:25</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/3212043932427643/?post_id=3223616731270363&amp;view=permalink</t>
+  </si>
+  <si>
+    <t>2:57.11</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1279,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:DH76" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:DH78" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="112">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -5013,6 +5031,76 @@
         <v>8.74</v>
       </c>
     </row>
+    <row r="77" ht="22.5" customHeight="1">
+      <c r="A77" s="6">
+        <v>46070.322483310185</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="DF77" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="DG77" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="DH77" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" ht="22.5" customHeight="1">
+      <c r="A78" s="6">
+        <v>46070.393976273146</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="CO78" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="CP78" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="CQ78" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="CR78" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="CS78" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="CT78" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="CU78" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F2"/>
@@ -5090,10 +5178,12 @@
     <hyperlink r:id="rId73" ref="F74"/>
     <hyperlink r:id="rId74" ref="F75"/>
     <hyperlink r:id="rId75" ref="F76"/>
+    <hyperlink r:id="rId76" ref="F77"/>
+    <hyperlink r:id="rId77" ref="F78"/>
   </hyperlinks>
-  <drawing r:id="rId76"/>
+  <drawing r:id="rId78"/>
   <tableParts count="1">
-    <tablePart r:id="rId78"/>
+    <tablePart r:id="rId80"/>
   </tableParts>
 </worksheet>
 </file>